--- a/code/random_forest-outfiles/n_estimators max_samples after final/final - by n_estimators.xlsx
+++ b/code/random_forest-outfiles/n_estimators max_samples after final/final - by n_estimators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\n_estimators max_samples after final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F53A391-6539-4CDB-97E4-425B26A0071C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33524AD-7F4F-4EFE-87F4-2D660D9153B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final - by n_estimators" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'final - by n_estimators'!$A$31:$AG$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
